--- a/Assessment/excel Assesment.xlsx
+++ b/Assessment/excel Assesment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXCel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syamu\OneDrive\Desktop\TOPS\Github\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8545,7 +8545,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -8617,13 +8617,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -8647,177 +8650,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -9008,6 +8840,118 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -9405,18 +9349,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -9432,18 +9365,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -9716,7 +9638,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9726,11 +9647,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="538010064"/>
-        <c:axId val="538024960"/>
+        <c:axId val="398249880"/>
+        <c:axId val="398250264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="538010064"/>
+        <c:axId val="398249880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9767,7 +9688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538024960"/>
+        <c:crossAx val="398250264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9775,7 +9696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538024960"/>
+        <c:axId val="398250264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9812,7 +9733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538010064"/>
+        <c:crossAx val="398249880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30540,7 +30461,7 @@
     <dataField name="Average of GPA" fld="8" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="0">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -30549,7 +30470,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -30558,7 +30479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -30567,7 +30488,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -30585,7 +30506,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -30594,7 +30515,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -30603,7 +30524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -30612,16 +30533,112 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -30644,20 +30661,20 @@
     <tableColumn id="2" name="Student Name"/>
     <tableColumn id="3" name="Course"/>
     <tableColumn id="4" name="Faculty"/>
-    <tableColumn id="5" name="Enrollment Date" dataDxfId="68"/>
+    <tableColumn id="5" name="Enrollment Date" dataDxfId="12"/>
     <tableColumn id="6" name="Status"/>
     <tableColumn id="7" name="Course Fee"/>
     <tableColumn id="8" name="Scholarship"/>
     <tableColumn id="9" name="GPA"/>
     <tableColumn id="10" name="Credits Earned"/>
     <tableColumn id="13" name="Column1"/>
-    <tableColumn id="11" name="Performance Category" dataDxfId="67">
+    <tableColumn id="11" name="Performance Category" dataDxfId="11">
       <calculatedColumnFormula>IF(Table1[[#This Row],[GPA]]&gt;3.5,"Excellent",IF(Table1[[#This Row],[GPA]]&gt;3,"Good",IF(Table1[[#This Row],[GPA]]&gt;2,"Average","Poor")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Scholarship &gt; 50% flag" dataDxfId="66">
+    <tableColumn id="12" name="Scholarship &gt; 50% flag" dataDxfId="10">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Scholarship]]&gt;Table1[[#This Row],[Course Fee]]*50%,"YES","NO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Year" dataDxfId="65">
+    <tableColumn id="14" name="Year" dataDxfId="9">
       <calculatedColumnFormula>YEAR(Table1[[#This Row],[Enrollment Date]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -30984,7 +31001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J13" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -31178,7 +31195,7 @@
       </c>
       <c r="Q4">
         <f ca="1">IF(F2="Enrolled",TODAY()-E2, " ")</f>
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -31654,7 +31671,7 @@
       </c>
       <c r="Q14">
         <f ca="1">IF(F3="Completed",  TODAY()-E3,  " ")</f>
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -83894,12 +83911,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83915,7 +83932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
